--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1308571.197308417</v>
+        <v>1304558.587294424</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283196</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>370.0648965483574</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>183.1642512458445</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -715,16 +715,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>80.73103865463315</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>17.39296944734673</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.45713216103746</v>
+        <v>373.3886011363413</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>180.6755658143352</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>218.8752234706447</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>237.1917225243014</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>78.14223821376341</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>101.3930697667052</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.8518831495033</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703275</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>5.421623586788386</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>15.76045942439036</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>20.92847288552852</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>30.6510490328338</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2563,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.8299898147634</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>5.890337106877502</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>107.4021082756248</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>191.6604102493268</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>177.1006680594869</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>206.7582264966188</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2232.598233480555</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1863.635716540143</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1505.370017933393</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1119.581765335148</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>708.595860545541</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>293.5234103905374</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>3009.337405520489</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2619.198073544677</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>758.9852304414014</v>
+        <v>2196.817819682432</v>
       </c>
       <c r="C4" t="n">
-        <v>758.9852304414014</v>
+        <v>2027.881636754526</v>
       </c>
       <c r="D4" t="n">
-        <v>608.8685910290657</v>
+        <v>1877.76499734219</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="U4" t="n">
-        <v>1705.527932658019</v>
+        <v>2844.81707056164</v>
       </c>
       <c r="V4" t="n">
-        <v>1450.843444452132</v>
+        <v>2844.81707056164</v>
       </c>
       <c r="W4" t="n">
-        <v>1161.426274415171</v>
+        <v>2827.248414554219</v>
       </c>
       <c r="X4" t="n">
-        <v>1161.426274415171</v>
+        <v>2599.258863656202</v>
       </c>
       <c r="Y4" t="n">
-        <v>940.6336952716412</v>
+        <v>2378.466284512672</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4573,7 +4573,7 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4606,13 +4606,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.6774975139006</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1553.108092385688</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1553.108092385688</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1553.108092385688</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1553.108092385688</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1325.11854148767</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1104.32596234414</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1285.277735635578</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2788.251321206705</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2788.251321206705</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2435.482665936591</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915838</v>
+        <v>2062.016907675511</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>1671.877575699699</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1848.362994337217</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1848.362994337217</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1626.596378906743</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.493512032386</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.809023826499</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1082.809023826499</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1053.171308869724</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>884.2351259418174</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>734.1184865294816</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.70136564882</v>
+        <v>1455.612352843494</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1234.819773699964</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756267</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756267</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>99.29305050937427</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5509,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5524,43 +5524,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913855</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417938</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972545</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647286</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368217</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>481.4479471244859</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>333.5348535420928</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235166</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336516</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949683</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,7 +5755,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5767,16 +5767,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.7825789706076</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1735.314832085242</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1480.630343879355</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1191.213173842395</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>963.2236229443774</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.4310438008473</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6077,16 +6077,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>414.4022433768879</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>266.4891497944948</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6211,10 +6211,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6463,19 +6463,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>241.4783296672662</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>99.7664985094643</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6925,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6946,10 +6946,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3227.225672628157</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>3058.28948970025</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>2908.172850287915</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2760.259756705521</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2613.369809207611</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2446.173709922491</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4401.757925742791</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4147.073437536905</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3857.656267499944</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3629.666716601927</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3408.874137458397</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,28 +7168,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7259,22 +7259,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7505,13 +7505,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.987318831765</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4471.231687421535</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>45.04089287986399</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.73277020259147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788486</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>129.6605885985409</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631857005</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>114.7699989900974</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>111.7546635373314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>75.37549921168804</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>32.89260457059909</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>25.74504007796142</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>45.37941682720918</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837043</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>937977.6930837044</v>
+        <v>937977.6930837041</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937977.6930837044</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>937977.6930837044</v>
+        <v>937977.6930837043</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>937977.6930837044</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
+        <v>484287.9598140034</v>
+      </c>
+      <c r="N2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140037</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>294946.9982990442</v>
       </c>
       <c r="D6" t="n">
-        <v>294946.9982990442</v>
+        <v>294946.9982990443</v>
       </c>
       <c r="E6" t="n">
-        <v>47195.87989595954</v>
+        <v>46848.50064160363</v>
       </c>
       <c r="F6" t="n">
-        <v>372608.3417033153</v>
+        <v>372260.962448958</v>
       </c>
       <c r="G6" t="n">
-        <v>372608.3417033153</v>
+        <v>372260.9624489581</v>
       </c>
       <c r="H6" t="n">
-        <v>372608.3417033154</v>
+        <v>372260.9624489583</v>
       </c>
       <c r="I6" t="n">
-        <v>372608.3417033153</v>
+        <v>372260.9624489583</v>
       </c>
       <c r="J6" t="n">
-        <v>155077.1393060379</v>
+        <v>154729.7600516808</v>
       </c>
       <c r="K6" t="n">
-        <v>372608.3417033153</v>
+        <v>372260.9624489582</v>
       </c>
       <c r="L6" t="n">
-        <v>372608.3417033153</v>
+        <v>372260.9624489582</v>
       </c>
       <c r="M6" t="n">
-        <v>287553.3137678033</v>
+        <v>287205.9345134464</v>
       </c>
       <c r="N6" t="n">
-        <v>372608.3417033152</v>
+        <v>372260.9624489582</v>
       </c>
       <c r="O6" t="n">
-        <v>372608.3417033155</v>
+        <v>372260.9624489584</v>
       </c>
       <c r="P6" t="n">
-        <v>372608.3417033152</v>
+        <v>372260.9624489583</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>12.66894511512317</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>111.4435131414759</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>65.70292399193602</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.1300288892443</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.2767095024431</v>
+        <v>9.345240527139254</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>38.87338346183398</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>32.11994848825731</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>149.0462161317522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>10.78991445628392</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28742,7 +28742,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>606.5820696732812</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647489</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950807</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>265.5442652399242</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>463.9858252288368</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427306</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>37.76383318075048</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>134.202553156591</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1304558.587294424</v>
+        <v>1306319.11759721</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283196</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.0648965483574</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>83.41943806107113</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>17.39296944734673</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>373.3886011363413</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>263.343179247062</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>157.7822070347161</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>393.6141792262787</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>218.8752234706447</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>110.5792314352437</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>101.3930697667052</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5.421623586788386</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>203.7149736865404</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>20.92847288552852</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.76189317295177</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>103.1686991936193</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>173.2052365248845</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>5.890337106877502</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>137.9792024346629</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113764</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>22.61263105777525</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.5673701373257</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,25 +4342,25 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4369,13 +4369,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1987.713327533092</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
@@ -4415,7 +4415,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2196.817819682432</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C4" t="n">
-        <v>2027.881636754526</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D4" t="n">
-        <v>1877.76499734219</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E4" t="n">
-        <v>1729.851903759797</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F4" t="n">
-        <v>1729.851903759797</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435997</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3133.919937435997</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>2844.81707056164</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>2844.81707056164</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>2827.248414554219</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>2599.258863656202</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y4" t="n">
-        <v>2378.466284512672</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1867.116698829639</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1498.154181889227</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1498.154181889227</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450754</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450754</v>
+        <v>1867.116698829639</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4713,52 +4713,52 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
         <v>1767.918581386758</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.277735635578</v>
+        <v>1661.138951213861</v>
       </c>
       <c r="C8" t="n">
-        <v>916.3152186951659</v>
+        <v>1661.138951213861</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1302.873252607111</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>917.0850000088665</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>506.0990952192589</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2788.251321206705</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.251321206705</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.482665936591</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.016907675511</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1671.877575699699</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4886,37 +4886,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>623.1279902937557</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>623.1279902937557</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>473.01135088142</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>325.0982572990268</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>178.2083098011165</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>843.9205694372858</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>623.1279902937557</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797183</v>
@@ -5041,13 +5041,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,10 +5056,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
@@ -5120,19 +5120,19 @@
         <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
         <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143763</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1053.171308869724</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>884.2351259418174</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>734.1184865294816</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5202,49 +5202,49 @@
         <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1683.601903741511</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.612352843494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1234.819773699964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768874</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E16" t="n">
-        <v>266.4891497944943</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>266.4891497944943</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>99.29305050937427</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474262</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>114.9565346495158</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797186</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>650.3841300523919</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6126,19 +6126,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.530292372932</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>853.5941094450255</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>703.4774700326898</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>555.5643764502967</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>408.6744289523863</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>241.4783296672662</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>99.7664985094643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U31" t="n">
-        <v>2197.062545487567</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V31" t="n">
-        <v>1942.37805728168</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1652.96088724472</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1424.971336346702</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.178757203172</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,25 +7426,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,28 +7636,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7666,10 +7666,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>45.04089287986399</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>134.8730892594355</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>14.8696796655544</v>
       </c>
     </row>
     <row r="17">
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>144.5956654067403</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631857005</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.6720694736174</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>45.37941682721026</v>
       </c>
     </row>
     <row r="29">
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>79.42624789262538</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>120.3791545843328</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837041</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837043</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>937977.6930837041</v>
+        <v>937977.6930837044</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837044</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837043</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837043</v>
       </c>
     </row>
     <row r="15">
@@ -26316,22 +26316,22 @@
         <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
-      <c r="D2" t="n">
-        <v>492625.0619185701</v>
-      </c>
       <c r="E2" t="n">
+        <v>484287.9598140034</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="F2" t="n">
-        <v>484287.9598140034</v>
-      </c>
       <c r="G2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
@@ -26340,13 +26340,13 @@
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
@@ -26355,7 +26355,7 @@
         <v>484287.9598140037</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26456,7 +26456,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26524,46 +26524,46 @@
         <v>-1033797.747428548</v>
       </c>
       <c r="C6" t="n">
-        <v>294946.9982990442</v>
+        <v>294946.9982990447</v>
       </c>
       <c r="D6" t="n">
-        <v>294946.9982990443</v>
+        <v>294946.9982990437</v>
       </c>
       <c r="E6" t="n">
-        <v>46848.50064160363</v>
+        <v>47161.14197052458</v>
       </c>
       <c r="F6" t="n">
-        <v>372260.962448958</v>
+        <v>372573.6037778792</v>
       </c>
       <c r="G6" t="n">
-        <v>372260.9624489581</v>
+        <v>372573.6037778796</v>
       </c>
       <c r="H6" t="n">
-        <v>372260.9624489583</v>
+        <v>372573.6037778797</v>
       </c>
       <c r="I6" t="n">
-        <v>372260.9624489583</v>
+        <v>372573.6037778795</v>
       </c>
       <c r="J6" t="n">
-        <v>154729.7600516808</v>
+        <v>155042.4013806022</v>
       </c>
       <c r="K6" t="n">
-        <v>372260.9624489582</v>
+        <v>372573.6037778793</v>
       </c>
       <c r="L6" t="n">
-        <v>372260.9624489582</v>
+        <v>372573.6037778795</v>
       </c>
       <c r="M6" t="n">
-        <v>287205.9345134464</v>
+        <v>287518.5758423678</v>
       </c>
       <c r="N6" t="n">
-        <v>372260.9624489582</v>
+        <v>372573.6037778796</v>
       </c>
       <c r="O6" t="n">
-        <v>372260.9624489584</v>
+        <v>372573.6037778797</v>
       </c>
       <c r="P6" t="n">
-        <v>372260.9624489583</v>
+        <v>372573.6037778794</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,19 +26816,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26965,28 +26965,28 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.66894511512317</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>286.3116626173979</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.3554362891111</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.1300288892443</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.345240527139254</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>118.5871908251997</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>94.35543628911191</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>17.30754642717471</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27909,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>32.11994848825731</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>55.44657682378448</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28742,7 +28742,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067231</v>
@@ -31764,28 +31764,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565776</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31916,7 +31916,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
@@ -31931,13 +31931,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614911</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121332</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899073</v>
@@ -35585,7 +35585,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998983</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394727</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
